--- a/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
+++ b/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" activeTab="3"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Login" sheetId="1" r:id="rId1"/>
     <sheet name="TC02_RegisterUser" sheetId="3" r:id="rId2"/>
     <sheet name="TC03_ForgotPassword" sheetId="2" r:id="rId3"/>
-    <sheet name="TC04_MyAccount" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="TC05_MyAccount" sheetId="4" r:id="rId4"/>
+    <sheet name="TC04_RegisterFromLoginPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -289,42 +289,6 @@
     <t>Verify email input with unregistered/invalid email</t>
   </si>
   <si>
-    <t>Test Case ID | Test Scenario                               | Steps to Execute                                                                 | Expected Result                              | Actual Result | Pass/Fail |</t>
-  </si>
-  <si>
-    <t>-------------|---------------------------------------------|----------------------------------------------------------------------------------|----------------------------------------------|---------------|-----------|</t>
-  </si>
-  <si>
-    <t>TC001        | Access My Account Page                      | 1. Log in to the application \n2. Navigate to the "My Account" page               | "My Account" page loads successfully          |               |           |</t>
-  </si>
-  <si>
-    <t>TC002        | Update Profile Information                  | 1. Log in to the application \n2. Navigate to "My Account" page \n3. Update profile info \n4. Save changes | Profile info updated successfully            |               |           |</t>
-  </si>
-  <si>
-    <t>TC003        | Invalid Profile Information                 | 1. Log in to the application \n2. Navigate to "My Account" page \n3. Enter invalid profile info \n4. Save changes | Error message displayed                      |               |           |</t>
-  </si>
-  <si>
-    <t>TC004        | Leave Required Fields Empty                 | 1. Log in to the application \n2. Navigate to "My Account" page \n3. Leave required fields empty \n4. Save changes | Validation messages displayed                 |               |           |</t>
-  </si>
-  <si>
-    <t>TC005        | Change Password with Valid Data             | 1. Log in to the application \n2. Navigate to "My Account" page \n3. Change password with valid data \n4. Save changes | Password changed successfully                 |               |           |</t>
-  </si>
-  <si>
-    <t>TC006        | Change Password with Invalid Data           | 1. Log in to the application \n2. Navigate to "My Account" page \n3. Change password with invalid data \n4. Save changes | Error message displayed                       |               |           |</t>
-  </si>
-  <si>
-    <t>TC007        | Check Order History                         | 1. Log in to the application \n2. Navigate to "My Account" page \n3. View order history | Order history displayed correctly             |               |           |</t>
-  </si>
-  <si>
-    <t>TC008        | Check Order History with No Orders          | 1. Log in to the application \n2. Navigate to "My Account" page \n3. View order history | "No orders found" message displayed          |               |           |</t>
-  </si>
-  <si>
-    <t>TC009        | Logout from My Account Page                 | 1. Log in to the application \n2. Navigate to "My Account" page \n3. Click "Logout" button | User logged out and redirected to login page |               |           |</t>
-  </si>
-  <si>
-    <t>TC010        | Access My Account Page Without Login        | 1. Navigate to "My Account" page without logging in                              | Redirected to login page                      |               |           |</t>
-  </si>
-  <si>
     <t>Verify user is able to Access My Account Page</t>
   </si>
   <si>
@@ -404,6 +368,27 @@
   </si>
   <si>
     <t>Login page loads successfully</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Verify Register Link/Icon is visible on login page</t>
+  </si>
+  <si>
+    <t>The Register link should be present on the login page.</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Verify user is able to navigate to register page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Launch the application.                       2. Navigate to the login screen            3. Click on Register Link </t>
+  </si>
+  <si>
+    <t>User should be navigated to the Register page.</t>
   </si>
 </sst>
 </file>
@@ -480,14 +465,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,7 +946,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,7 +1122,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1268,21 +1253,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="6"/>
-    <col min="8" max="8" width="12.54296875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="13.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="12.54296875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1312,180 +1297,180 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>81</v>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>85</v>
+      <c r="B3" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
+      <c r="B4" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>87</v>
+      <c r="B5" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>88</v>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>90</v>
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>92</v>
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>94</v>
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1495,73 +1480,90 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
+++ b/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Login" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TC03_ForgotPassword" sheetId="2" r:id="rId3"/>
     <sheet name="TC05_MyAccount" sheetId="4" r:id="rId4"/>
     <sheet name="TC04_RegisterFromLoginPage" sheetId="5" r:id="rId5"/>
+    <sheet name="TC05_EditProfile" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -389,6 +390,75 @@
   </si>
   <si>
     <t>User should be navigated to the Register page.</t>
+  </si>
+  <si>
+    <t>Verify all  components are visible on edit profile page</t>
+  </si>
+  <si>
+    <t>User is on the My Account page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on edit account information icon   </t>
+  </si>
+  <si>
+    <t>All components should be present on the edit profile page.</t>
+  </si>
+  <si>
+    <t>Verify that user correct information is visible on edit profile page</t>
+  </si>
+  <si>
+    <t>All correct information should pe visible on the edit profile page</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on edit account information icon   4. Enter valid data in the field                      5. click on continue button   </t>
+  </si>
+  <si>
+    <t>Navigate to MyAccount Page and Success message should be displayed</t>
+  </si>
+  <si>
+    <t>Valid credentials and valid data for profile update</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>verify user is able to Edit Profile with Valid Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify user is unable to Edit Profile with All Fields Blank </t>
+  </si>
+  <si>
+    <t>verify user is unable to Edit Profile with Invalid Email Format</t>
+  </si>
+  <si>
+    <t>Verify user is able to go back to myaccount page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on edit account information icon   4. leave all/any fields blank                                5. click on continue button   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on edit account information icon   4. Enter invalid email in the field                      5. click on continue button   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on edit account information icon                         4. click on back button   </t>
+  </si>
+  <si>
+    <t>Error Message should be displayed</t>
+  </si>
+  <si>
+    <t>My Account page should be displayed</t>
+  </si>
+  <si>
+    <t>valid credential for login</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1324,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1482,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1568,4 +1638,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="19.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
+++ b/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Login" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="TC05_MyAccount" sheetId="4" r:id="rId4"/>
     <sheet name="TC04_RegisterFromLoginPage" sheetId="5" r:id="rId5"/>
     <sheet name="TC05_EditProfile" sheetId="6" r:id="rId6"/>
+    <sheet name="TC06_ChangePassword" sheetId="7" r:id="rId7"/>
+    <sheet name="TC07_AddAddress" sheetId="8" r:id="rId8"/>
+    <sheet name="TC08_EditDeleteAddress" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="164">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -459,6 +462,120 @@
   </si>
   <si>
     <t>valid credential for login</t>
+  </si>
+  <si>
+    <t>Verify all  components are visible on change password page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on change password icon   </t>
+  </si>
+  <si>
+    <t>All components should be present on the change password page.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to change password with valid data</t>
+  </si>
+  <si>
+    <t>1. Log in to the application                           2. Navigate to the "My Account" page                                                  3. Click on change password icon     4. Enter valid password                  5. Click on Continue Button</t>
+  </si>
+  <si>
+    <t>valid credential for login and valid new password</t>
+  </si>
+  <si>
+    <t>Verify that user is unable to change password with different value in password and confirm password</t>
+  </si>
+  <si>
+    <t>1. Log in to the application                           2. Navigate to the "My Account" page                                                  3. Click on change password icon     4. Enter different data in password  and confirm password field                                                   5. Click on Continue Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify user is unable to change password with All Fields Blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                  3. Click on change password icon   4. leave all/any fields blank                                5. click on continue button   </t>
+  </si>
+  <si>
+    <t>verify user is unable to change password with less number of character than 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                  3. Click on change password icon   4. enter data of size less than 4                               5. click on continue button   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                  3. Click on change password icon                         4. click on back button   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on Address icon   </t>
+  </si>
+  <si>
+    <t>All components should be present on the address page.</t>
+  </si>
+  <si>
+    <t>Verify user is able to add new address with valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on Address icon                          4. Enter all valid data                               5. Click on continue button   </t>
+  </si>
+  <si>
+    <t>New Address added sucessfully and visible on the address page</t>
+  </si>
+  <si>
+    <t>valid credential for login and valid data for address</t>
+  </si>
+  <si>
+    <t>Verify that user is unable to add new address with blank fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on Address icon                          4. Leave all fields blank                         5. Click on continue button   </t>
+  </si>
+  <si>
+    <t>Verify all  components are visible on address page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on address icon   </t>
+  </si>
+  <si>
+    <t>Verify that user correct address information is visible on edit address page</t>
+  </si>
+  <si>
+    <t>All correct information should pe visible on the edit address page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                                2. Navigate to the "My Account" page                                                 3. Click on address icon            4. Click on edit icon of the address  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on address icon            4. Click on edit icon of the address                                         5. Enter valid data in the field                      6. click on continue button   </t>
+  </si>
+  <si>
+    <t>Navigate to address Page and Success message should be displayed and address should be updated</t>
+  </si>
+  <si>
+    <t>verify user is able to Edit existing address with Valid Data</t>
+  </si>
+  <si>
+    <t>1. Log in to the application                                2. Navigate to the "My Account" page                                                 3. Click on address icon            4. Click on delete icon of the address if multiple address available</t>
+  </si>
+  <si>
+    <t>Navigate to address Page and Success message should be displayed and address should be deleted</t>
+  </si>
+  <si>
+    <t>verify user is able to delete the existing address (if more than one address available)</t>
+  </si>
+  <si>
+    <t>1. Log in to the application                                2. Navigate to the "My Account" page                                                 3. Click on address icon            4. Click on delete icon of the address if only one available</t>
+  </si>
+  <si>
+    <t>Navigate to address Page and error message should be displayed and address should not be deleted</t>
+  </si>
+  <si>
+    <t>verify user is able to delete the existing address (if only one address available)</t>
+  </si>
+  <si>
+    <t>Verify user is unable to edit existing address with empty mandatory fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Navigate to the "My Account" page                                                 3. Click on address icon            4. Click on edit icon of the address                                         5. leave mandatory fields empty                                          6. click on continue button   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> error message should be displayed and address should not be edited</t>
   </si>
 </sst>
 </file>
@@ -523,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -542,6 +659,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1823,4 +1943,482 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="21.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
+++ b/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Login" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="TC06_ChangePassword" sheetId="7" r:id="rId7"/>
     <sheet name="TC07_AddAddress" sheetId="8" r:id="rId8"/>
     <sheet name="TC08_EditDeleteAddress" sheetId="9" r:id="rId9"/>
+    <sheet name="TC09_AddToWishlist" sheetId="10" r:id="rId10"/>
+    <sheet name="TC10_AddToCart" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="200">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -566,9 +568,6 @@
     <t>Navigate to address Page and error message should be displayed and address should not be deleted</t>
   </si>
   <si>
-    <t>verify user is able to delete the existing address (if only one address available)</t>
-  </si>
-  <si>
     <t>Verify user is unable to edit existing address with empty mandatory fields</t>
   </si>
   <si>
@@ -576,6 +575,117 @@
   </si>
   <si>
     <t xml:space="preserve"> error message should be displayed and address should not be edited</t>
+  </si>
+  <si>
+    <t>Verify valid item added in the wishlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Select an item from menu bar                                                3. Click on add wishlist icon      4. go to wishlist                            </t>
+  </si>
+  <si>
+    <t>Same item should be added in the wishlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Select an item from menu bar                                                3. Click on add wishlist icon      4. Again click on wishlist icon   5. go to wishlist                                                       </t>
+  </si>
+  <si>
+    <t>Same item should be removed from the wishlist</t>
+  </si>
+  <si>
+    <t>Confirmation message appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Select an item from menu bar                                                3. Click on add wishlist icon                              </t>
+  </si>
+  <si>
+    <t>Verify confirmation on addition item to the wishlist</t>
+  </si>
+  <si>
+    <t>Verify addition without login</t>
+  </si>
+  <si>
+    <t>User is on application page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify valid item removed from the wishlist </t>
+  </si>
+  <si>
+    <t>Item should be removed from the wishlist</t>
+  </si>
+  <si>
+    <t>Verify confirmation on addition item to the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Select an item from menu bar                                                3. Click on cart icon                              </t>
+  </si>
+  <si>
+    <t>Verify valid item added in the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Select an item from menu bar                                                  3. Click on cart icon                     4. go to cart                            </t>
+  </si>
+  <si>
+    <t>Verify valid item quantity increased by 1 (if again click on cart icon of product which is already added in the cart)</t>
+  </si>
+  <si>
+    <t>Verify valid item removed from the wishlist (if again click on wishlist icon of productwhich is already added in the wishlist)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Select an item from menu bar                                                 3. Click on cart icon                    4. Again click on cart icon          5. go to cart                                                  </t>
+  </si>
+  <si>
+    <t>Same item quantity should be increased by 1</t>
+  </si>
+  <si>
+    <t>Verify Valid item from wishlist added to the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Go to wishlist                                            3. Click on cart icon                    4. go to cart                                                  </t>
+  </si>
+  <si>
+    <t>item should be added in the cart</t>
+  </si>
+  <si>
+    <t>Verify valid item removed from the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                                                                                2. Go to wishlist                        3. click on remove icon                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2.  Go to cart                                3. click on remove icon of selected item                                               </t>
+  </si>
+  <si>
+    <t>Item should be removed from the cart</t>
+  </si>
+  <si>
+    <t>Login/Register Message should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select an item from menu bar                                                2. Click on add wishlist icon   </t>
+  </si>
+  <si>
+    <t>Verify User ask to login if try to see wishlist without login</t>
+  </si>
+  <si>
+    <t>1. Click on wishlist icon</t>
+  </si>
+  <si>
+    <t>Should navigate to login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select an item from menu bar                                                  2. Click on cart icon                     3. go to cart       </t>
+  </si>
+  <si>
+    <t>Verify User will get empty cart list if click on cart icon without login</t>
+  </si>
+  <si>
+    <t>1. Click on cart icon</t>
+  </si>
+  <si>
+    <t>Should display empty cart list</t>
+  </si>
+  <si>
+    <t>verify user is unable to delete the existing address (if only one address available)</t>
   </si>
 </sst>
 </file>
@@ -640,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -663,6 +773,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,6 +1244,384 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
@@ -2251,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2383,7 +2874,7 @@
         <v>114</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>104</v>
@@ -2403,16 +2894,16 @@
         <v>115</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>

--- a/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
+++ b/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
+++ b/LambdaTest_Playwright_Java/src/test/resources/TestCases/LambdaTest_Ecommerce Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Login" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="TC03_ForgotPassword" sheetId="2" r:id="rId3"/>
     <sheet name="TC05_MyAccount" sheetId="4" r:id="rId4"/>
     <sheet name="TC04_RegisterFromLoginPage" sheetId="5" r:id="rId5"/>
-    <sheet name="TC05_EditProfile" sheetId="6" r:id="rId6"/>
-    <sheet name="TC06_ChangePassword" sheetId="7" r:id="rId7"/>
-    <sheet name="TC07_AddAddress" sheetId="8" r:id="rId8"/>
-    <sheet name="TC08_EditDeleteAddress" sheetId="9" r:id="rId9"/>
-    <sheet name="TC09_AddToWishlist" sheetId="10" r:id="rId10"/>
-    <sheet name="TC10_AddToCart" sheetId="11" r:id="rId11"/>
+    <sheet name="TC06_EditProfile" sheetId="6" r:id="rId6"/>
+    <sheet name="TC07_ChangePassword" sheetId="7" r:id="rId7"/>
+    <sheet name="TC08_AddAddress" sheetId="8" r:id="rId8"/>
+    <sheet name="TC09_EditDeleteAddress" sheetId="9" r:id="rId9"/>
+    <sheet name="TC10_AddToWishlist" sheetId="10" r:id="rId10"/>
+    <sheet name="TC11_AddToCart" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
